--- a/기타/요구사항 정의서/요구사항 정의서.xlsx
+++ b/기타/요구사항 정의서/요구사항 정의서.xlsx
@@ -1,52 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sin00\OneDrive\문서\GitHub\CsharpProject\기타\요구사항 정의서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\새 폴더\CsharpProject\기타\요구사항 정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DD1A69-28B3-437F-A581-827287F552CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22785" windowHeight="15255"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 정의서" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'요구사항 정의서'!$A$1:$J$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'요구사항 정의서'!$A$1:$F$20</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>요구사항명</t>
   </si>
   <si>
-    <t>기능명</t>
-  </si>
-  <si>
     <t>요구사항 상세설명</t>
   </si>
   <si>
-    <t>필수 데이터</t>
-  </si>
-  <si>
-    <t>선택 데이터</t>
-  </si>
-  <si>
     <t>작업자</t>
   </si>
   <si>
     <t>중요도</t>
-  </si>
-  <si>
-    <t>난이도</t>
   </si>
   <si>
     <t>요구사항 정의서</t>
@@ -168,7 +155,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -479,55 +466,55 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -744,371 +731,284 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="110.81640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.36328125" style="2" customWidth="1"/>
-    <col min="7" max="9" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.7265625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="12.6328125" style="2"/>
+    <col min="2" max="2" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="130" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="19" t="s">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+      <c r="C15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="10" t="s">
+      <c r="D16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="18"/>
+      <c r="C17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="18"/>
+      <c r="C18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8" t="s">
+      <c r="D18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="20"/>
+      <c r="C19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8" t="s">
+      <c r="D19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="42" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B2:E2"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B16:B19"/>
@@ -1117,6 +1017,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="70" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId1"/>
 </worksheet>
 </file>